--- a/data/trans_orig/P1424_2015-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P1424_2015-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{62F8E4AD-4544-4D02-B616-B1FEE2914577}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{99714D43-70E6-4854-8131-EF293D4DCDAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{EA4B481D-CB92-4345-AB68-6C5BCBFC0074}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{1984FE07-2036-4483-BAF6-B2A2E9FC5E5B}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="322">
   <si>
     <t>Población con diagnóstico de trastornos de ansiedad en 2015 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -75,28 +75,28 @@
     <t>1,75%</t>
   </si>
   <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
   </si>
   <si>
     <t>9,93%</t>
   </si>
   <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
   </si>
   <si>
     <t>5,81%</t>
   </si>
   <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
   </si>
   <si>
     <t>No</t>
@@ -105,28 +105,28 @@
     <t>98,25%</t>
   </si>
   <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
+    <t>95,68%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
   </si>
   <si>
     <t>90,07%</t>
   </si>
   <si>
-    <t>85,57%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
+    <t>85,81%</t>
+  </si>
+  <si>
+    <t>93,29%</t>
   </si>
   <si>
     <t>94,19%</t>
   </si>
   <si>
-    <t>91,94%</t>
-  </si>
-  <si>
-    <t>96,03%</t>
+    <t>91,79%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
   </si>
   <si>
     <t>100%</t>
@@ -138,883 +138,871 @@
     <t>2,09%</t>
   </si>
   <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
   </si>
   <si>
     <t>6,68%</t>
   </si>
   <si>
-    <t>4,69%</t>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>93,32%</t>
+  </si>
+  <si>
+    <t>90,66%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>93,95%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
+  </si>
+  <si>
+    <t>92,82%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>95,74%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>94,2%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>95,67%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>94,13%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>91,49%</t>
+  </si>
+  <si>
+    <t>87,35%</t>
+  </si>
+  <si>
+    <t>94,73%</t>
+  </si>
+  <si>
+    <t>94,32%</t>
+  </si>
+  <si>
+    <t>92,06%</t>
+  </si>
+  <si>
+    <t>96,26%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>94,52%</t>
+  </si>
+  <si>
+    <t>91,4%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
+  </si>
+  <si>
+    <t>96,44%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>93,05%</t>
+  </si>
+  <si>
+    <t>90,61%</t>
+  </si>
+  <si>
+    <t>94,95%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>94,67%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
   </si>
   <si>
     <t>9,2%</t>
   </si>
   <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>93,32%</t>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>92,81%</t>
   </si>
   <si>
     <t>90,8%</t>
   </si>
   <si>
-    <t>95,31%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>95,77%</t>
-  </si>
-  <si>
-    <t>93,15%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>93,82%</t>
   </si>
   <si>
     <t>1,91%</t>
   </si>
   <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>93,45%</t>
+  </si>
+  <si>
+    <t>92,57%</t>
+  </si>
+  <si>
+    <t>94,29%</t>
+  </si>
+  <si>
+    <t>95,72%</t>
+  </si>
+  <si>
+    <t>95,23%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de trastornos de ansiedad en 2023 (Tasa respuesta: 99,83%)</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
     <t>5,74%</t>
   </si>
   <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
   </si>
   <si>
     <t>94,26%</t>
   </si>
   <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>89,53%</t>
+  </si>
+  <si>
+    <t>87,26%</t>
+  </si>
+  <si>
+    <t>91,8%</t>
+  </si>
+  <si>
+    <t>91,23%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
   </si>
   <si>
     <t>8,17%</t>
   </si>
   <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>91,49%</t>
-  </si>
-  <si>
-    <t>87,46%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>92,74%</t>
+  </si>
+  <si>
+    <t>89,6%</t>
+  </si>
+  <si>
+    <t>95,03%</t>
+  </si>
+  <si>
+    <t>89,5%</t>
+  </si>
+  <si>
+    <t>86,49%</t>
   </si>
   <si>
     <t>91,83%</t>
   </si>
   <si>
-    <t>96,34%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>94,52%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>96,44%</t>
-  </si>
-  <si>
-    <t>94,68%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>93,05%</t>
-  </si>
-  <si>
-    <t>90,96%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>94,6%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>92,81%</t>
-  </si>
-  <si>
-    <t>90,75%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>93,86%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>93,45%</t>
-  </si>
-  <si>
-    <t>92,56%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de trastornos de ansiedad en 2023 (Tasa respuesta: 99,83%)</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>93,84%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>89,53%</t>
-  </si>
-  <si>
-    <t>87,1%</t>
-  </si>
-  <si>
-    <t>91,53%</t>
-  </si>
-  <si>
-    <t>92,82%</t>
-  </si>
-  <si>
-    <t>91,15%</t>
-  </si>
-  <si>
-    <t>94,12%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
+    <t>91,0%</t>
+  </si>
+  <si>
+    <t>88,73%</t>
+  </si>
+  <si>
+    <t>92,75%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>90,78%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>92,52%</t>
+  </si>
+  <si>
+    <t>94,43%</t>
+  </si>
+  <si>
+    <t>93,28%</t>
+  </si>
+  <si>
+    <t>91,04%</t>
+  </si>
+  <si>
+    <t>94,91%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>93,42%</t>
+  </si>
+  <si>
+    <t>90,15%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>96,13%</t>
+  </si>
+  <si>
+    <t>94,03%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>91,24%</t>
+  </si>
+  <si>
+    <t>87,64%</t>
+  </si>
+  <si>
+    <t>93,92%</t>
+  </si>
+  <si>
+    <t>86,27%</t>
+  </si>
+  <si>
+    <t>82,74%</t>
+  </si>
+  <si>
+    <t>89,39%</t>
+  </si>
+  <si>
+    <t>88,77%</t>
+  </si>
+  <si>
+    <t>86,32%</t>
+  </si>
+  <si>
+    <t>90,76%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
   </si>
   <si>
     <t>7,21%</t>
   </si>
   <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>92,74%</t>
-  </si>
-  <si>
-    <t>89,57%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
-  </si>
-  <si>
-    <t>89,5%</t>
-  </si>
-  <si>
-    <t>86,68%</t>
-  </si>
-  <si>
-    <t>91,0%</t>
-  </si>
-  <si>
-    <t>89,16%</t>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>94,23%</t>
+  </si>
+  <si>
+    <t>91,59%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>88,56%</t>
+  </si>
+  <si>
+    <t>85,66%</t>
   </si>
   <si>
     <t>92,79%</t>
   </si>
   <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>94,29%</t>
-  </si>
-  <si>
-    <t>90,31%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>92,52%</t>
-  </si>
-  <si>
-    <t>89,96%</t>
-  </si>
-  <si>
-    <t>94,38%</t>
-  </si>
-  <si>
-    <t>93,28%</t>
-  </si>
-  <si>
-    <t>91,38%</t>
-  </si>
-  <si>
-    <t>94,75%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>93,42%</t>
-  </si>
-  <si>
-    <t>89,85%</t>
-  </si>
-  <si>
-    <t>95,62%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
-  </si>
-  <si>
-    <t>93,94%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>91,24%</t>
-  </si>
-  <si>
-    <t>87,84%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>86,27%</t>
-  </si>
-  <si>
-    <t>82,66%</t>
-  </si>
-  <si>
-    <t>89,34%</t>
-  </si>
-  <si>
-    <t>88,77%</t>
-  </si>
-  <si>
-    <t>86,51%</t>
-  </si>
-  <si>
-    <t>90,92%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>94,23%</t>
-  </si>
-  <si>
-    <t>91,65%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>88,56%</t>
-  </si>
-  <si>
-    <t>85,58%</t>
-  </si>
-  <si>
-    <t>92,9%</t>
-  </si>
-  <si>
-    <t>91,04%</t>
-  </si>
-  <si>
-    <t>89,28%</t>
-  </si>
-  <si>
-    <t>93,37%</t>
+    <t>89,11%</t>
   </si>
   <si>
     <t>2,78%</t>
   </si>
   <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
   </si>
   <si>
     <t>7,27%</t>
   </si>
   <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
   </si>
   <si>
     <t>5,03%</t>
   </si>
   <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
+    <t>4,02%</t>
   </si>
   <si>
     <t>97,22%</t>
   </si>
   <si>
-    <t>95,69%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
   </si>
   <si>
     <t>92,73%</t>
   </si>
   <si>
-    <t>91,02%</t>
-  </si>
-  <si>
-    <t>94,16%</t>
+    <t>91,09%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
   </si>
   <si>
     <t>94,97%</t>
   </si>
   <si>
-    <t>93,83%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
+    <t>95,98%</t>
   </si>
   <si>
     <t>4,36%</t>
   </si>
   <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
   </si>
   <si>
     <t>8,99%</t>
   </si>
   <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
   </si>
   <si>
     <t>6,81%</t>
   </si>
   <si>
-    <t>7,4%</t>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
   </si>
   <si>
     <t>95,64%</t>
   </si>
   <si>
-    <t>94,86%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
+    <t>94,83%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
   </si>
   <si>
     <t>91,01%</t>
   </si>
   <si>
-    <t>89,98%</t>
-  </si>
-  <si>
-    <t>91,95%</t>
+    <t>90,1%</t>
+  </si>
+  <si>
+    <t>92,19%</t>
   </si>
   <si>
     <t>93,19%</t>
   </si>
   <si>
-    <t>92,6%</t>
+    <t>92,53%</t>
+  </si>
+  <si>
+    <t>93,78%</t>
   </si>
 </sst>
 </file>
@@ -1426,7 +1414,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7389DB22-D305-4BA1-BA1D-B9DD2B157EFD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2252DC60-8EAE-4A88-8675-E2F72C437EF1}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1896,7 +1884,7 @@
         <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1911,13 +1899,13 @@
         <v>314413</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>318</v>
@@ -1926,13 +1914,13 @@
         <v>322096</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>649</v>
@@ -1941,13 +1929,13 @@
         <v>636509</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2003,7 +1991,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2015,13 +2003,13 @@
         <v>8304</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>13</v>
@@ -2030,13 +2018,13 @@
         <v>13532</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>21</v>
@@ -2045,13 +2033,13 @@
         <v>21836</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2066,13 +2054,13 @@
         <v>361660</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>345</v>
@@ -2081,13 +2069,13 @@
         <v>373751</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>691</v>
@@ -2096,13 +2084,13 @@
         <v>735411</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2158,7 +2146,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2170,13 +2158,13 @@
         <v>5824</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>19</v>
@@ -2185,13 +2173,13 @@
         <v>18593</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>25</v>
@@ -2200,13 +2188,13 @@
         <v>24417</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2221,13 +2209,13 @@
         <v>205397</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>204</v>
@@ -2236,13 +2224,13 @@
         <v>199994</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>410</v>
@@ -2251,13 +2239,13 @@
         <v>405391</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2313,7 +2301,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2325,13 +2313,13 @@
         <v>4136</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H19" s="7">
         <v>15</v>
@@ -2340,13 +2328,13 @@
         <v>14972</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>90</v>
+        <v>113</v>
       </c>
       <c r="M19" s="7">
         <v>19</v>
@@ -2355,13 +2343,13 @@
         <v>19108</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2376,13 +2364,13 @@
         <v>258987</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H20" s="7">
         <v>248</v>
@@ -2391,13 +2379,13 @@
         <v>258143</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>99</v>
+        <v>120</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="M20" s="7">
         <v>503</v>
@@ -2406,13 +2394,13 @@
         <v>517130</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="P20" s="7" t="s">
-        <v>120</v>
-      </c>
       <c r="Q20" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2468,7 +2456,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2480,13 +2468,13 @@
         <v>7124</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>12</v>
+        <v>126</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="H22" s="7">
         <v>43</v>
@@ -2495,13 +2483,13 @@
         <v>48032</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="M22" s="7">
         <v>50</v>
@@ -2510,13 +2498,13 @@
         <v>55156</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2531,13 +2519,13 @@
         <v>649434</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>23</v>
+        <v>136</v>
       </c>
       <c r="H23" s="7">
         <v>603</v>
@@ -2546,13 +2534,13 @@
         <v>643262</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="M23" s="7">
         <v>1176</v>
@@ -2561,13 +2549,13 @@
         <v>1292696</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2623,7 +2611,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2635,13 +2623,13 @@
         <v>19506</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>142</v>
+        <v>96</v>
       </c>
       <c r="H25" s="7">
         <v>51</v>
@@ -2650,13 +2638,13 @@
         <v>59361</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>144</v>
+        <v>93</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="M25" s="7">
         <v>70</v>
@@ -2665,13 +2653,13 @@
         <v>78866</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2686,13 +2674,13 @@
         <v>759077</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>149</v>
+        <v>106</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H26" s="7">
         <v>704</v>
@@ -2701,13 +2689,13 @@
         <v>766806</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>153</v>
+        <v>103</v>
       </c>
       <c r="M26" s="7">
         <v>1435</v>
@@ -2722,7 +2710,7 @@
         <v>155</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2790,13 +2778,13 @@
         <v>64676</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>72</v>
+        <v>156</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="H28" s="7">
         <v>214</v>
@@ -2805,13 +2793,13 @@
         <v>232305</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="M28" s="7">
         <v>276</v>
@@ -2820,13 +2808,13 @@
         <v>296981</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>142</v>
+        <v>163</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2841,13 +2829,13 @@
         <v>3329674</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>82</v>
+        <v>165</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="H29" s="7">
         <v>3124</v>
@@ -2856,13 +2844,13 @@
         <v>3312237</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="M29" s="7">
         <v>6293</v>
@@ -2871,13 +2859,13 @@
         <v>6641911</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>149</v>
+        <v>173</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2933,7 +2921,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -2957,7 +2945,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{421B5D63-5129-4F32-9F6E-3B5C2B586D27}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ACFF0F8-AE70-41D2-B260-8032CB715D6E}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2974,7 +2962,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3081,13 +3069,13 @@
         <v>989</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="H4" s="7">
         <v>12</v>
@@ -3096,13 +3084,13 @@
         <v>4907</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="M4" s="7">
         <v>13</v>
@@ -3111,13 +3099,13 @@
         <v>5896</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3132,13 +3120,13 @@
         <v>259309</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="H5" s="7">
         <v>526</v>
@@ -3147,13 +3135,13 @@
         <v>266496</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="M5" s="7">
         <v>856</v>
@@ -3162,13 +3150,13 @@
         <v>525804</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3236,13 +3224,13 @@
         <v>19053</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="H7" s="7">
         <v>82</v>
@@ -3251,13 +3239,13 @@
         <v>57897</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="M7" s="7">
         <v>98</v>
@@ -3266,13 +3254,13 @@
         <v>76950</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>194</v>
+        <v>56</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>195</v>
+        <v>17</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3287,13 +3275,13 @@
         <v>499174</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="H8" s="7">
         <v>633</v>
@@ -3302,28 +3290,28 @@
         <v>495140</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="M8" s="7">
         <v>998</v>
       </c>
       <c r="N8" s="7">
-        <v>994314</v>
+        <v>994313</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>203</v>
+        <v>64</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>205</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3365,7 +3353,7 @@
         <v>1096</v>
       </c>
       <c r="N9" s="7">
-        <v>1071264</v>
+        <v>1071263</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3391,13 +3379,13 @@
         <v>23379</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="H10" s="7">
         <v>60</v>
@@ -3406,13 +3394,13 @@
         <v>39201</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>95</v>
+        <v>212</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="M10" s="7">
         <v>88</v>
@@ -3421,13 +3409,13 @@
         <v>62580</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3442,13 +3430,13 @@
         <v>298861</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="H11" s="7">
         <v>476</v>
@@ -3457,13 +3445,13 @@
         <v>334083</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>103</v>
+        <v>222</v>
       </c>
       <c r="M11" s="7">
         <v>808</v>
@@ -3472,13 +3460,13 @@
         <v>632944</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3534,7 +3522,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3546,13 +3534,13 @@
         <v>18400</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>222</v>
+        <v>160</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="H13" s="7">
         <v>50</v>
@@ -3561,13 +3549,13 @@
         <v>32074</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>227</v>
+        <v>14</v>
       </c>
       <c r="M13" s="7">
         <v>67</v>
@@ -3576,13 +3564,13 @@
         <v>50474</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3597,13 +3585,13 @@
         <v>303840</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>231</v>
+        <v>170</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H14" s="7">
         <v>549</v>
@@ -3612,10 +3600,10 @@
         <v>396482</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>235</v>
+        <v>24</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>236</v>
@@ -3689,7 +3677,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3704,7 +3692,7 @@
         <v>240</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>241</v>
@@ -3758,7 +3746,7 @@
         <v>249</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="H17" s="7">
         <v>461</v>
@@ -3844,7 +3832,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3999,7 +3987,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4041,13 +4029,13 @@
         <v>127880</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>280</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4062,13 +4050,13 @@
         <v>587774</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>283</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>285</v>
       </c>
       <c r="H23" s="7">
         <v>834</v>
@@ -4077,13 +4065,13 @@
         <v>711579</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>286</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>288</v>
       </c>
       <c r="M23" s="7">
         <v>1396</v>
@@ -4092,13 +4080,13 @@
         <v>1299353</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>289</v>
+        <v>238</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>291</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4154,7 +4142,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -4166,13 +4154,13 @@
         <v>23871</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="H25" s="7">
         <v>80</v>
@@ -4181,13 +4169,13 @@
         <v>62845</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="M25" s="7">
         <v>102</v>
@@ -4196,13 +4184,13 @@
         <v>86716</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>300</v>
+        <v>257</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4217,13 +4205,13 @@
         <v>835557</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="H26" s="7">
         <v>980</v>
@@ -4232,13 +4220,13 @@
         <v>802055</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="M26" s="7">
         <v>1720</v>
@@ -4247,13 +4235,13 @@
         <v>1637612</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>308</v>
+        <v>267</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4321,13 +4309,13 @@
         <v>147274</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="H28" s="7">
         <v>505</v>
@@ -4336,28 +4324,28 @@
         <v>341807</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="M28" s="7">
         <v>658</v>
       </c>
       <c r="N28" s="7">
-        <v>489081</v>
+        <v>489082</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>300</v>
+        <v>311</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4372,13 +4360,13 @@
         <v>3232863</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="H29" s="7">
         <v>4852</v>
@@ -4387,13 +4375,13 @@
         <v>3459271</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="M29" s="7">
         <v>8070</v>
@@ -4402,13 +4390,13 @@
         <v>6692134</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>308</v>
+        <v>321</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4450,7 +4438,7 @@
         <v>8728</v>
       </c>
       <c r="N30" s="7">
-        <v>7181215</v>
+        <v>7181216</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -4464,7 +4452,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1424_2015-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P1424_2015-Provincia-trans_orig.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{99714D43-70E6-4854-8131-EF293D4DCDAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D1D81D33-68C8-4A3D-B743-5531ECD016FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{1984FE07-2036-4483-BAF6-B2A2E9FC5E5B}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F99B6636-3CDF-433B-AE5D-A6A413D90A74}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" r:id="rId1"/>
     <sheet name="2023" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -37,9 +37,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="322">
-  <si>
-    <t>Población con diagnóstico de trastornos de ansiedad en 2015 (Tasa respuesta: 100,0%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="314">
+  <si>
+    <t>Población con diagnóstico de trastornos de ansiedad en 2016 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -75,25 +75,25 @@
     <t>1,75%</t>
   </si>
   <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
   </si>
   <si>
     <t>9,93%</t>
   </si>
   <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
   </si>
   <si>
     <t>5,81%</t>
   </si>
   <si>
-    <t>3,99%</t>
+    <t>4,15%</t>
   </si>
   <si>
     <t>8,21%</t>
@@ -105,19 +105,19 @@
     <t>98,25%</t>
   </si>
   <si>
-    <t>95,68%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
   </si>
   <si>
     <t>90,07%</t>
   </si>
   <si>
-    <t>85,81%</t>
-  </si>
-  <si>
-    <t>93,29%</t>
+    <t>86,07%</t>
+  </si>
+  <si>
+    <t>93,23%</t>
   </si>
   <si>
     <t>94,19%</t>
@@ -126,7 +126,7 @@
     <t>91,79%</t>
   </si>
   <si>
-    <t>96,01%</t>
+    <t>95,85%</t>
   </si>
   <si>
     <t>100%</t>
@@ -138,19 +138,19 @@
     <t>2,09%</t>
   </si>
   <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
   </si>
   <si>
     <t>6,68%</t>
   </si>
   <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
   </si>
   <si>
     <t>4,43%</t>
@@ -159,31 +159,31 @@
     <t>3,21%</t>
   </si>
   <si>
-    <t>6,05%</t>
+    <t>6,09%</t>
   </si>
   <si>
     <t>97,91%</t>
   </si>
   <si>
-    <t>96,38%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
+    <t>96,19%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
   </si>
   <si>
     <t>93,32%</t>
   </si>
   <si>
-    <t>90,66%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
+    <t>91,0%</t>
+  </si>
+  <si>
+    <t>95,25%</t>
   </si>
   <si>
     <t>95,57%</t>
   </si>
   <si>
-    <t>93,95%</t>
+    <t>93,91%</t>
   </si>
   <si>
     <t>96,79%</t>
@@ -195,547 +195,523 @@
     <t>1,3%</t>
   </si>
   <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
   </si>
   <si>
     <t>4,23%</t>
   </si>
   <si>
-    <t>2,43%</t>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>94,47%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>91,49%</t>
+  </si>
+  <si>
+    <t>87,22%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>94,32%</t>
+  </si>
+  <si>
+    <t>91,96%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>94,52%</t>
+  </si>
+  <si>
+    <t>91,39%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>96,44%</t>
+  </si>
+  <si>
+    <t>94,44%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>93,05%</t>
+  </si>
+  <si>
+    <t>90,77%</t>
+  </si>
+  <si>
+    <t>94,92%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>92,81%</t>
+  </si>
+  <si>
+    <t>90,55%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>93,45%</t>
+  </si>
+  <si>
+    <t>92,54%</t>
+  </si>
+  <si>
+    <t>94,26%</t>
+  </si>
+  <si>
+    <t>95,72%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de trastornos de ansiedad en 2023 (Tasa respuesta: 99,83%)</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
   </si>
   <si>
     <t>7,18%</t>
   </si>
   <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>95,77%</t>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>89,53%</t>
+  </si>
+  <si>
+    <t>87,26%</t>
+  </si>
+  <si>
+    <t>91,8%</t>
   </si>
   <si>
     <t>92,82%</t>
   </si>
   <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>95,74%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>94,2%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>95,67%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>94,13%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>91,49%</t>
-  </si>
-  <si>
-    <t>87,35%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>92,06%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>94,52%</t>
-  </si>
-  <si>
-    <t>91,4%</t>
-  </si>
-  <si>
-    <t>97,02%</t>
-  </si>
-  <si>
-    <t>96,44%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>93,05%</t>
-  </si>
-  <si>
-    <t>90,61%</t>
-  </si>
-  <si>
-    <t>94,95%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>94,67%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>92,81%</t>
-  </si>
-  <si>
-    <t>90,8%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>93,82%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
+    <t>91,23%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>92,74%</t>
+  </si>
+  <si>
+    <t>89,6%</t>
+  </si>
+  <si>
+    <t>95,03%</t>
+  </si>
+  <si>
+    <t>89,5%</t>
+  </si>
+  <si>
+    <t>86,49%</t>
+  </si>
+  <si>
+    <t>91,83%</t>
+  </si>
+  <si>
+    <t>88,73%</t>
+  </si>
+  <si>
+    <t>92,75%</t>
   </si>
   <si>
     <t>5,71%</t>
   </si>
   <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>93,45%</t>
-  </si>
-  <si>
-    <t>92,57%</t>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
   </si>
   <si>
     <t>94,29%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de trastornos de ansiedad en 2023 (Tasa respuesta: 99,83%)</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>94,26%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>89,53%</t>
-  </si>
-  <si>
-    <t>87,26%</t>
-  </si>
-  <si>
-    <t>91,8%</t>
-  </si>
-  <si>
-    <t>91,23%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>92,74%</t>
-  </si>
-  <si>
-    <t>89,6%</t>
-  </si>
-  <si>
-    <t>95,03%</t>
-  </si>
-  <si>
-    <t>89,5%</t>
-  </si>
-  <si>
-    <t>86,49%</t>
-  </si>
-  <si>
-    <t>91,83%</t>
-  </si>
-  <si>
-    <t>91,0%</t>
-  </si>
-  <si>
-    <t>88,73%</t>
-  </si>
-  <si>
-    <t>92,75%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
   </si>
   <si>
     <t>90,78%</t>
@@ -1414,7 +1390,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2252DC60-8EAE-4A88-8675-E2F72C437EF1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36A9E79C-E8DA-423B-B256-ED9BE74BFFB7}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1869,7 +1845,7 @@
         <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="M10" s="7">
         <v>18</v>
@@ -1878,13 +1854,13 @@
         <v>18365</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1899,13 +1875,13 @@
         <v>314413</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>318</v>
@@ -1914,13 +1890,13 @@
         <v>322096</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>649</v>
@@ -1929,13 +1905,13 @@
         <v>636509</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1991,7 +1967,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2003,13 +1979,13 @@
         <v>8304</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="H13" s="7">
         <v>13</v>
@@ -2018,13 +1994,13 @@
         <v>13532</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="M13" s="7">
         <v>21</v>
@@ -2033,13 +2009,13 @@
         <v>21836</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2054,13 +2030,13 @@
         <v>361660</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="H14" s="7">
         <v>345</v>
@@ -2069,13 +2045,13 @@
         <v>373751</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="M14" s="7">
         <v>691</v>
@@ -2084,13 +2060,13 @@
         <v>735411</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2146,7 +2122,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2158,13 +2134,13 @@
         <v>5824</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="H16" s="7">
         <v>19</v>
@@ -2173,13 +2149,13 @@
         <v>18593</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="M16" s="7">
         <v>25</v>
@@ -2188,13 +2164,13 @@
         <v>24417</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2209,13 +2185,13 @@
         <v>205397</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="H17" s="7">
         <v>204</v>
@@ -2224,13 +2200,13 @@
         <v>199994</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="M17" s="7">
         <v>410</v>
@@ -2239,13 +2215,13 @@
         <v>405391</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2301,7 +2277,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2313,13 +2289,13 @@
         <v>4136</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="H19" s="7">
         <v>15</v>
@@ -2328,13 +2304,13 @@
         <v>14972</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="M19" s="7">
         <v>19</v>
@@ -2343,13 +2319,13 @@
         <v>19108</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2364,13 +2340,13 @@
         <v>258987</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H20" s="7">
         <v>248</v>
@@ -2379,13 +2355,13 @@
         <v>258143</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="M20" s="7">
         <v>503</v>
@@ -2394,13 +2370,13 @@
         <v>517130</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2456,7 +2432,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2468,13 +2444,13 @@
         <v>7124</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="H22" s="7">
         <v>43</v>
@@ -2483,13 +2459,13 @@
         <v>48032</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="M22" s="7">
         <v>50</v>
@@ -2498,13 +2474,13 @@
         <v>55156</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>132</v>
+        <v>53</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>133</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2519,13 +2495,13 @@
         <v>649434</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="H23" s="7">
         <v>603</v>
@@ -2534,13 +2510,13 @@
         <v>643262</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="M23" s="7">
         <v>1176</v>
@@ -2549,13 +2525,13 @@
         <v>1292696</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>141</v>
+        <v>99</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>142</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2611,7 +2587,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2623,13 +2599,13 @@
         <v>19506</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>96</v>
+        <v>140</v>
       </c>
       <c r="H25" s="7">
         <v>51</v>
@@ -2638,13 +2614,13 @@
         <v>59361</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="M25" s="7">
         <v>70</v>
@@ -2653,13 +2629,13 @@
         <v>78866</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2674,13 +2650,13 @@
         <v>759077</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>106</v>
+        <v>146</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="H26" s="7">
         <v>704</v>
@@ -2689,13 +2665,13 @@
         <v>766806</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="M26" s="7">
         <v>1435</v>
@@ -2704,13 +2680,13 @@
         <v>1525884</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2778,13 +2754,13 @@
         <v>64676</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="H28" s="7">
         <v>214</v>
@@ -2793,13 +2769,13 @@
         <v>232305</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="M28" s="7">
         <v>276</v>
@@ -2808,13 +2784,13 @@
         <v>296981</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2829,13 +2805,13 @@
         <v>3329674</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="H29" s="7">
         <v>3124</v>
@@ -2844,13 +2820,13 @@
         <v>3312237</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="M29" s="7">
         <v>6293</v>
@@ -2859,13 +2835,13 @@
         <v>6641911</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2921,7 +2897,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -2945,7 +2921,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ACFF0F8-AE70-41D2-B260-8032CB715D6E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD698D2D-44A9-4890-BBAE-443806C931F6}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2962,7 +2938,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3069,13 +3045,13 @@
         <v>989</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>178</v>
+        <v>111</v>
       </c>
       <c r="H4" s="7">
         <v>12</v>
@@ -3084,13 +3060,13 @@
         <v>4907</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="M4" s="7">
         <v>13</v>
@@ -3099,13 +3075,13 @@
         <v>5896</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3120,13 +3096,13 @@
         <v>259309</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>186</v>
+        <v>121</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="H5" s="7">
         <v>526</v>
@@ -3135,13 +3111,13 @@
         <v>266496</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="M5" s="7">
         <v>856</v>
@@ -3150,13 +3126,13 @@
         <v>525804</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3224,13 +3200,13 @@
         <v>19053</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>194</v>
+        <v>92</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>196</v>
+        <v>156</v>
       </c>
       <c r="H7" s="7">
         <v>82</v>
@@ -3239,13 +3215,13 @@
         <v>57897</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="M7" s="7">
         <v>98</v>
@@ -3254,13 +3230,13 @@
         <v>76950</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>56</v>
+        <v>192</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3275,13 +3251,13 @@
         <v>499174</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>201</v>
+        <v>102</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>202</v>
+        <v>166</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="H8" s="7">
         <v>633</v>
@@ -3290,13 +3266,13 @@
         <v>495140</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="M8" s="7">
         <v>998</v>
@@ -3305,10 +3281,10 @@
         <v>994313</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>64</v>
+        <v>198</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>27</v>
@@ -3379,13 +3355,13 @@
         <v>23379</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="H10" s="7">
         <v>60</v>
@@ -3394,13 +3370,13 @@
         <v>39201</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="M10" s="7">
         <v>88</v>
@@ -3409,13 +3385,13 @@
         <v>62580</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>214</v>
+        <v>37</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3430,13 +3406,13 @@
         <v>298861</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="H11" s="7">
         <v>476</v>
@@ -3445,13 +3421,13 @@
         <v>334083</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="M11" s="7">
         <v>808</v>
@@ -3460,13 +3436,13 @@
         <v>632944</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>223</v>
+        <v>45</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3522,7 +3498,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3534,13 +3510,13 @@
         <v>18400</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>160</v>
+        <v>216</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="H13" s="7">
         <v>50</v>
@@ -3549,10 +3525,10 @@
         <v>32074</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>14</v>
@@ -3564,13 +3540,13 @@
         <v>50474</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3585,13 +3561,13 @@
         <v>303840</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>170</v>
+        <v>224</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="H14" s="7">
         <v>549</v>
@@ -3600,13 +3576,13 @@
         <v>396482</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="M14" s="7">
         <v>824</v>
@@ -3615,13 +3591,13 @@
         <v>700322</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3677,7 +3653,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3689,13 +3665,13 @@
         <v>1348</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="H16" s="7">
         <v>30</v>
@@ -3704,13 +3680,13 @@
         <v>15225</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="M16" s="7">
         <v>32</v>
@@ -3719,13 +3695,13 @@
         <v>16573</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3740,13 +3716,13 @@
         <v>195400</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="H17" s="7">
         <v>461</v>
@@ -3755,13 +3731,13 @@
         <v>216271</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="M17" s="7">
         <v>738</v>
@@ -3770,13 +3746,13 @@
         <v>411671</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3832,7 +3808,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3844,13 +3820,13 @@
         <v>24273</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="H19" s="7">
         <v>66</v>
@@ -3859,13 +3835,13 @@
         <v>37740</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="M19" s="7">
         <v>100</v>
@@ -3874,13 +3850,13 @@
         <v>62013</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3895,13 +3871,13 @@
         <v>252950</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="H20" s="7">
         <v>393</v>
@@ -3910,13 +3886,13 @@
         <v>237165</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="M20" s="7">
         <v>730</v>
@@ -3925,13 +3901,13 @@
         <v>490114</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3987,7 +3963,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3999,13 +3975,13 @@
         <v>35960</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="H22" s="7">
         <v>125</v>
@@ -4014,13 +3990,13 @@
         <v>91920</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="M22" s="7">
         <v>158</v>
@@ -4029,13 +4005,13 @@
         <v>127880</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>35</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4050,13 +4026,13 @@
         <v>587774</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="H23" s="7">
         <v>834</v>
@@ -4065,13 +4041,13 @@
         <v>711579</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="M23" s="7">
         <v>1396</v>
@@ -4080,10 +4056,10 @@
         <v>1299353</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>44</v>
@@ -4142,7 +4118,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -4154,13 +4130,13 @@
         <v>23871</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="H25" s="7">
         <v>80</v>
@@ -4169,13 +4145,13 @@
         <v>62845</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="M25" s="7">
         <v>102</v>
@@ -4184,13 +4160,13 @@
         <v>86716</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4205,13 +4181,13 @@
         <v>835557</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="H26" s="7">
         <v>980</v>
@@ -4220,13 +4196,13 @@
         <v>802055</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="M26" s="7">
         <v>1720</v>
@@ -4235,13 +4211,13 @@
         <v>1637612</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4309,13 +4285,13 @@
         <v>147274</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="H28" s="7">
         <v>505</v>
@@ -4324,13 +4300,13 @@
         <v>341807</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="M28" s="7">
         <v>658</v>
@@ -4339,13 +4315,13 @@
         <v>489082</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4360,13 +4336,13 @@
         <v>3232863</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="H29" s="7">
         <v>4852</v>
@@ -4375,13 +4351,13 @@
         <v>3459271</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="M29" s="7">
         <v>8070</v>
@@ -4390,13 +4366,13 @@
         <v>6692134</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4452,7 +4428,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
